--- a/mc/indicators/xl/bud_balance.xlsx
+++ b/mc/indicators/xl/bud_balance.xlsx
@@ -351,7 +351,7 @@
     <t>Budget balance (% of GDP)</t>
   </si>
   <si>
-    <t>Source: Economist Intelligent Unit (Oct. 2017)</t>
+    <t>Source: Economist Intelligence Unit (Oct. 2017)</t>
   </si>
 </sst>
 </file>
@@ -8526,19 +8526,19 @@
         <v>91</v>
       </c>
       <c r="G19" s="1">
-        <v>-4.6</v>
+        <v>-4.4</v>
       </c>
       <c r="H19" s="1">
-        <v>-3.2</v>
+        <v>-2.9</v>
       </c>
       <c r="I19" s="1">
-        <v>-1.8</v>
+        <v>-1.6</v>
       </c>
       <c r="J19" s="1">
-        <v>-2.1</v>
+        <v>-2</v>
       </c>
       <c r="K19" s="1">
-        <v>-1</v>
+        <v>-0.9</v>
       </c>
       <c r="L19" s="1">
         <v>-0.2</v>
@@ -8547,64 +8547,64 @@
         <v>-1</v>
       </c>
       <c r="N19" s="1">
+        <v>-2.5</v>
+      </c>
+      <c r="O19" s="1">
+        <v>-3.4</v>
+      </c>
+      <c r="P19" s="1">
+        <v>-2.9</v>
+      </c>
+      <c r="Q19" s="1">
+        <v>-2.2</v>
+      </c>
+      <c r="R19" s="1">
+        <v>-1.3</v>
+      </c>
+      <c r="S19" s="1">
+        <v>-0.6</v>
+      </c>
+      <c r="T19" s="1">
+        <v>-2.3</v>
+      </c>
+      <c r="U19" s="1">
+        <v>-7.5</v>
+      </c>
+      <c r="V19" s="1">
+        <v>-6.8</v>
+      </c>
+      <c r="W19" s="1">
+        <v>-5.8</v>
+      </c>
+      <c r="X19" s="1">
+        <v>-5.1</v>
+      </c>
+      <c r="Y19" s="1">
+        <v>-3.5</v>
+      </c>
+      <c r="Z19" s="1">
         <v>-2.6</v>
       </c>
-      <c r="O19" s="1">
-        <v>-3.6</v>
-      </c>
-      <c r="P19" s="1">
-        <v>-3.1</v>
-      </c>
-      <c r="Q19" s="1">
-        <v>-2.3</v>
-      </c>
-      <c r="R19" s="1">
-        <v>-1.4</v>
-      </c>
-      <c r="S19" s="1">
-        <v>-0.8</v>
-      </c>
-      <c r="T19" s="1">
+      <c r="AA19" s="1">
+        <v>-2.2</v>
+      </c>
+      <c r="AB19" s="1">
         <v>-2.4</v>
       </c>
-      <c r="U19" s="1">
-        <v>-7.7</v>
-      </c>
-      <c r="V19" s="1">
-        <v>-7.1</v>
-      </c>
-      <c r="W19" s="1">
-        <v>-6.1</v>
-      </c>
-      <c r="X19" s="1">
-        <v>-5.4</v>
-      </c>
-      <c r="Y19" s="1">
-        <v>-3.8</v>
-      </c>
-      <c r="Z19" s="1">
+      <c r="AC19" s="1">
+        <v>-2.4</v>
+      </c>
+      <c r="AD19" s="1">
+        <v>-2.6</v>
+      </c>
+      <c r="AE19" s="1">
         <v>-2.8</v>
       </c>
-      <c r="AA19" s="1">
-        <v>-2.3</v>
-      </c>
-      <c r="AB19" s="1">
-        <v>-2.6</v>
-      </c>
-      <c r="AC19" s="1">
-        <v>-2.6</v>
-      </c>
-      <c r="AD19" s="1">
-        <v>-2.8</v>
-      </c>
-      <c r="AE19" s="1">
-        <v>-2.9</v>
-      </c>
       <c r="AF19" s="1">
-        <v>-3.1</v>
+        <v>-3</v>
       </c>
       <c r="AG19" s="1">
-        <v>-2.9</v>
+        <v>-2.7</v>
       </c>
       <c r="AH19" s="1" t="s">
         <v>91</v>
